--- a/pred_ohlcv/54_21/2020-01-16 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 CHR ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-986131.0854390897</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-949895.1181981497</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1011829.41149815</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1011829.41149815</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-866303.6906384196</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-866303.6906384196</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-866341.6906384196</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-872399.4398384196</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-872361.4398384196</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-853622.3173384195</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-883238.9669384195</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-881404.5362384195</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-881404.5362384195</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-871090.1338627795</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-871129.1338627795</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-802029.1338627795</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-804007.3356627795</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-880672.9633627795</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-882356.8158627795</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-910459.7299627796</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-910421.7299627796</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-914555.2959627795</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-900948.2672627795</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-846552.6065225095</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1092349.934022509</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1089154.79712251</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 CHR ohlcv.xlsx
@@ -1146,7 +1146,7 @@
         <v>-959417.0681981497</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1011829.41149815</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1011829.41149815</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-866303.6906384196</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-866303.6906384196</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-866341.6906384196</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-866341.6906384196</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-872399.4398384196</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-872361.4398384196</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-853622.3173384195</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-883238.9669384195</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-881404.5362384195</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-881404.5362384195</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-871090.1338627795</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-871129.1338627795</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-802029.1338627795</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-802029.1338627795</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-804007.3356627795</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-880672.9633627795</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-882356.8158627795</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-910421.7299627796</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-914555.2959627795</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-900948.2672627795</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-877930.0074627795</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-834258.5220225095</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-846552.6065225095</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-909848.7971225095</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-952036.5224225095</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1092349.934022509</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-963903.9965225096</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-993903.9965225096</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-972013.0395225096</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1064402.67962251</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1077538.02472251</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1093355.68342251</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1089154.79712251</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
